--- a/teaching/traditional_assets/database/data/pakistan/pakistan_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0226</v>
+        <v>0.02415</v>
       </c>
       <c r="E2">
-        <v>-0.00647</v>
+        <v>-0.040485</v>
       </c>
       <c r="G2">
-        <v>0.1434230362125926</v>
+        <v>0.2065453534247528</v>
       </c>
       <c r="H2">
-        <v>0.1408410045867146</v>
+        <v>0.203364791351652</v>
       </c>
       <c r="I2">
-        <v>0.1326036996245978</v>
+        <v>0.1903123207675061</v>
       </c>
       <c r="J2">
-        <v>0.1209037400517799</v>
+        <v>0.1790275097412466</v>
       </c>
       <c r="K2">
-        <v>9.446</v>
+        <v>7.799</v>
       </c>
       <c r="L2">
-        <v>0.1514898803605222</v>
+        <v>0.1355475607000713</v>
       </c>
       <c r="M2">
-        <v>6.2301</v>
+        <v>9.0197</v>
       </c>
       <c r="N2">
-        <v>0.04739124150888858</v>
+        <v>0.06133430347209945</v>
       </c>
       <c r="O2">
-        <v>0.6595490154562779</v>
+        <v>1.156520066675215</v>
       </c>
       <c r="P2">
-        <v>6.2301</v>
+        <v>9.0197</v>
       </c>
       <c r="Q2">
-        <v>0.04739124150888858</v>
+        <v>0.06133430347209945</v>
       </c>
       <c r="R2">
-        <v>0.6595490154562779</v>
+        <v>1.156520066675215</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.782</v>
+        <v>23.507</v>
       </c>
       <c r="V2">
-        <v>0.08962353853994721</v>
+        <v>0.1598484951515728</v>
       </c>
       <c r="W2">
-        <v>0.002435234038228643</v>
+        <v>0.005739073498117531</v>
       </c>
       <c r="X2">
-        <v>0.04337097327160573</v>
+        <v>0.0334406512218046</v>
       </c>
       <c r="Y2">
-        <v>-0.04093573923337709</v>
+        <v>-0.02770157772368707</v>
       </c>
       <c r="Z2">
-        <v>0.1337376607072493</v>
+        <v>0.1532819880277169</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05211023037165916</v>
+        <v>0.04132977741725822</v>
       </c>
       <c r="AC2">
-        <v>-0.04873764502377326</v>
+        <v>-0.03918561422026368</v>
       </c>
       <c r="AD2">
-        <v>205.978</v>
+        <v>183.968</v>
       </c>
       <c r="AE2">
-        <v>0.03814456803913741</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>206.0161445680392</v>
+        <v>183.968</v>
       </c>
       <c r="AG2">
-        <v>194.2341445680391</v>
+        <v>160.461</v>
       </c>
       <c r="AH2">
-        <v>0.6104595463249335</v>
+        <v>0.5557509077836786</v>
       </c>
       <c r="AI2">
-        <v>0.5322724909403148</v>
+        <v>0.500108738201905</v>
       </c>
       <c r="AJ2">
-        <v>0.5963679465521254</v>
+        <v>0.5217921494281653</v>
       </c>
       <c r="AK2">
-        <v>0.5175876166937025</v>
+        <v>0.4659836386921408</v>
       </c>
       <c r="AL2">
-        <v>10.616</v>
+        <v>10.882</v>
       </c>
       <c r="AM2">
-        <v>10.246</v>
+        <v>10.383</v>
       </c>
       <c r="AN2">
-        <v>20.04456987154535</v>
+        <v>16.12764092224073</v>
       </c>
       <c r="AO2">
-        <v>0.7765636774679728</v>
+        <v>1.006248851314097</v>
       </c>
       <c r="AP2">
-        <v>18.90172679720116</v>
+        <v>14.06688875252038</v>
       </c>
       <c r="AQ2">
-        <v>0.8046066757759125</v>
+        <v>1.054608494654724</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORIX Modaraba (KASE:ORIXM)</t>
+          <t>B.R.R. Guardian Modaraba (KASE:BRR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0208</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.07290000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="G3">
-        <v>0.2427480916030535</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="H3">
-        <v>0.2427480916030535</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="I3">
-        <v>0.2748091603053435</v>
+        <v>0.5708333333333334</v>
       </c>
       <c r="J3">
-        <v>0.2748091603053435</v>
+        <v>0.5708333333333334</v>
       </c>
       <c r="K3">
-        <v>0.8159999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="L3">
-        <v>0.06229007633587786</v>
+        <v>0.6125</v>
       </c>
       <c r="M3">
-        <v>0.7264</v>
+        <v>0.122</v>
       </c>
       <c r="N3">
-        <v>0.1479429735234216</v>
+        <v>0.01865443425076452</v>
       </c>
       <c r="O3">
-        <v>0.8901960784313727</v>
+        <v>0.08299319727891157</v>
       </c>
       <c r="P3">
-        <v>0.7264</v>
+        <v>0.122</v>
       </c>
       <c r="Q3">
-        <v>0.1479429735234216</v>
+        <v>0.01865443425076452</v>
       </c>
       <c r="R3">
-        <v>0.8901960784313727</v>
+        <v>0.08299319727891157</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01055045871559633</v>
       </c>
       <c r="W3">
-        <v>0.09577464788732394</v>
+        <v>0.17458432304038</v>
       </c>
       <c r="X3">
-        <v>0.1113672503855894</v>
+        <v>0.02879616841273362</v>
       </c>
       <c r="Y3">
-        <v>-0.01559260249826548</v>
+        <v>0.1457881546276464</v>
       </c>
       <c r="Z3">
-        <v>0.2946468735942421</v>
+        <v>0.2613524991832734</v>
       </c>
       <c r="AA3">
-        <v>0.08097165991902835</v>
+        <v>0.1491887182837853</v>
       </c>
       <c r="AB3">
-        <v>0.06529876941303742</v>
+        <v>0.03178211288767829</v>
       </c>
       <c r="AC3">
-        <v>0.01567289050599094</v>
+        <v>0.117406605396107</v>
       </c>
       <c r="AD3">
-        <v>30.2</v>
+        <v>0.779</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>30.2</v>
+        <v>0.779</v>
       </c>
       <c r="AG3">
-        <v>30.2</v>
+        <v>0.71</v>
       </c>
       <c r="AH3">
-        <v>0.860153802335517</v>
+        <v>0.106435305369586</v>
       </c>
       <c r="AI3">
-        <v>0.8025511559925592</v>
+        <v>0.05956112852664577</v>
       </c>
       <c r="AJ3">
-        <v>0.860153802335517</v>
+        <v>0.09793103448275861</v>
       </c>
       <c r="AK3">
-        <v>0.8025511559925592</v>
+        <v>0.05457340507302074</v>
       </c>
       <c r="AL3">
-        <v>3.18</v>
+        <v>0.046</v>
       </c>
       <c r="AM3">
-        <v>3.18</v>
+        <v>0.046</v>
       </c>
       <c r="AN3">
-        <v>8.251366120218579</v>
+        <v>0.4779141104294479</v>
       </c>
       <c r="AO3">
-        <v>1.132075471698113</v>
+        <v>29.78260869565218</v>
       </c>
       <c r="AP3">
-        <v>8.251366120218579</v>
+        <v>0.4355828220858896</v>
       </c>
       <c r="AQ3">
-        <v>1.132075471698113</v>
+        <v>29.78260869565218</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First Habib Modaraba (KASE:FHAM)</t>
+          <t>ORIX Modaraba (KASE:ORIXM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.212</v>
+        <v>-0.00482</v>
       </c>
       <c r="E4">
-        <v>0.0295</v>
+        <v>-0.0839</v>
       </c>
       <c r="G4">
-        <v>0.6995515695067264</v>
+        <v>0.335593220338983</v>
       </c>
       <c r="H4">
-        <v>0.6995515695067264</v>
+        <v>0.335593220338983</v>
       </c>
       <c r="I4">
-        <v>0.8251121076233183</v>
+        <v>0.3101694915254237</v>
       </c>
       <c r="J4">
-        <v>0.8251121076233183</v>
+        <v>0.3101694915254237</v>
       </c>
       <c r="K4">
-        <v>2.18</v>
+        <v>0.801</v>
       </c>
       <c r="L4">
-        <v>0.3258594917787743</v>
+        <v>0.06788135593220339</v>
       </c>
       <c r="M4">
-        <v>1.58</v>
+        <v>0.673</v>
       </c>
       <c r="N4">
-        <v>0.1253968253968254</v>
+        <v>0.1354124748490946</v>
       </c>
       <c r="O4">
-        <v>0.7247706422018348</v>
+        <v>0.8401997503121099</v>
       </c>
       <c r="P4">
-        <v>1.58</v>
+        <v>0.673</v>
       </c>
       <c r="Q4">
-        <v>0.1253968253968254</v>
+        <v>0.1354124748490946</v>
       </c>
       <c r="R4">
-        <v>0.7247706422018348</v>
+        <v>0.8401997503121099</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.46</v>
+        <v>5.59</v>
       </c>
       <c r="V4">
-        <v>0.03650793650793651</v>
+        <v>1.124748490945674</v>
       </c>
       <c r="W4">
-        <v>0.07956204379562044</v>
+        <v>0.1171052631578947</v>
       </c>
       <c r="X4">
-        <v>0.07372885000153187</v>
+        <v>0.09460582838401989</v>
       </c>
       <c r="Y4">
-        <v>0.005833193794088573</v>
+        <v>0.02249943477387485</v>
       </c>
       <c r="Z4">
-        <v>0.09073647090736471</v>
+        <v>0.3568188690656184</v>
       </c>
       <c r="AA4">
-        <v>0.0748677607486776</v>
+        <v>0.1106743271847596</v>
       </c>
       <c r="AB4">
-        <v>0.0617343126051212</v>
+        <v>0.05651001486913514</v>
       </c>
       <c r="AC4">
-        <v>0.01313344814355639</v>
+        <v>0.05416431231562446</v>
       </c>
       <c r="AD4">
-        <v>38.5</v>
+        <v>28.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>38.5</v>
+        <v>28.4</v>
       </c>
       <c r="AG4">
-        <v>38.04</v>
+        <v>22.81</v>
       </c>
       <c r="AH4">
-        <v>0.7534246575342466</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="AI4">
-        <v>0.6384742951907131</v>
+        <v>0.8123569794050343</v>
       </c>
       <c r="AJ4">
-        <v>0.7511848341232227</v>
+        <v>0.8210943124550036</v>
       </c>
       <c r="AK4">
-        <v>0.6356951871657753</v>
+        <v>0.7766428328226082</v>
       </c>
       <c r="AL4">
-        <v>4.11</v>
+        <v>3.07</v>
       </c>
       <c r="AM4">
-        <v>3.935</v>
+        <v>3.07</v>
       </c>
       <c r="AN4">
-        <v>6.802120141342756</v>
+        <v>7.696476964769648</v>
       </c>
       <c r="AO4">
-        <v>1.343065693430657</v>
+        <v>1.192182410423453</v>
       </c>
       <c r="AP4">
-        <v>6.720848056537102</v>
+        <v>6.181571815718157</v>
       </c>
       <c r="AQ4">
-        <v>1.40279542566709</v>
+        <v>1.192182410423453</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>First IBL Modaraba (KASE:FIBLM)</t>
+          <t>Pak-Gulf Leasing Company Limited (KASE:PGLC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,43 +993,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.07429999999999999</v>
+        <v>0.161</v>
+      </c>
+      <c r="E5">
+        <v>-0.224</v>
       </c>
       <c r="G5">
-        <v>0.358288770053476</v>
+        <v>0.65625</v>
       </c>
       <c r="H5">
-        <v>0.358288770053476</v>
+        <v>0.65625</v>
       </c>
       <c r="I5">
-        <v>0.2834224598930481</v>
+        <v>0.675</v>
       </c>
       <c r="J5">
-        <v>0.2834224598930481</v>
+        <v>0.675</v>
       </c>
       <c r="K5">
-        <v>0.052</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L5">
-        <v>0.2780748663101604</v>
+        <v>0.053125</v>
       </c>
       <c r="M5">
-        <v>0.0217</v>
+        <v>0.115</v>
       </c>
       <c r="N5">
-        <v>0.05945205479452055</v>
+        <v>0.06424581005586592</v>
       </c>
       <c r="O5">
-        <v>0.4173076923076923</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="P5">
-        <v>0.0217</v>
+        <v>0.115</v>
       </c>
       <c r="Q5">
-        <v>0.05945205479452055</v>
+        <v>0.06424581005586592</v>
       </c>
       <c r="R5">
-        <v>0.4173076923076923</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1038,67 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.173</v>
+        <v>0.772</v>
       </c>
       <c r="V5">
-        <v>0.473972602739726</v>
+        <v>0.4312849162011173</v>
       </c>
       <c r="W5">
-        <v>0.03443708609271523</v>
+        <v>0.01706827309236948</v>
       </c>
       <c r="X5">
-        <v>0.03670528784338182</v>
+        <v>0.05026181676459014</v>
       </c>
       <c r="Y5">
-        <v>-0.002268201750666589</v>
+        <v>-0.03319354367222066</v>
       </c>
       <c r="Z5">
-        <v>0.1774193548387097</v>
+        <v>0.1573254670599804</v>
       </c>
       <c r="AA5">
-        <v>0.05028462998102466</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="AB5">
-        <v>0.03730207418262997</v>
+        <v>0.05461243137052027</v>
       </c>
       <c r="AC5">
-        <v>0.01298255579839469</v>
+        <v>0.05158225889496647</v>
       </c>
       <c r="AD5">
-        <v>0.004</v>
+        <v>3.48</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.004</v>
+        <v>3.48</v>
       </c>
       <c r="AG5">
-        <v>-0.169</v>
+        <v>2.708</v>
       </c>
       <c r="AH5">
-        <v>0.01084010840108401</v>
+        <v>0.6603415559772297</v>
       </c>
       <c r="AI5">
-        <v>0.003241491085899514</v>
+        <v>0.4275184275184275</v>
       </c>
       <c r="AJ5">
-        <v>-0.8622448979591836</v>
+        <v>0.6020453534904402</v>
       </c>
       <c r="AK5">
-        <v>-0.1592836946277097</v>
+        <v>0.3675352877307275</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AN5">
-        <v>0.04395604395604396</v>
+        <v>3.026086956521739</v>
+      </c>
+      <c r="AO5">
+        <v>1.741935483870968</v>
       </c>
       <c r="AP5">
-        <v>-1.857142857142857</v>
+        <v>2.354782608695653</v>
+      </c>
+      <c r="AQ5">
+        <v>1.741935483870968</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>First Punjab Modaraba (KASE:FPJM)</t>
+          <t>First Habib Modaraba (KASE:FHAM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,43 +1127,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0467</v>
+        <v>0.198</v>
+      </c>
+      <c r="E6">
+        <v>0.00406</v>
       </c>
       <c r="G6">
-        <v>0.6708955223880597</v>
+        <v>0.9174174174174174</v>
       </c>
       <c r="H6">
-        <v>0.6708955223880597</v>
+        <v>0.9174174174174174</v>
       </c>
       <c r="I6">
-        <v>0.7313432835820894</v>
+        <v>0.8243243243243243</v>
       </c>
       <c r="J6">
-        <v>0.7313432835820894</v>
+        <v>0.8243243243243243</v>
       </c>
       <c r="K6">
-        <v>-0.044</v>
+        <v>1.87</v>
       </c>
       <c r="L6">
-        <v>-0.03283582089552239</v>
+        <v>0.2807807807807808</v>
       </c>
       <c r="M6">
-        <v>0.206</v>
+        <v>1.67</v>
       </c>
       <c r="N6">
-        <v>0.3672014260249554</v>
+        <v>0.1336</v>
       </c>
       <c r="O6">
-        <v>-4.681818181818182</v>
+        <v>0.8930481283422459</v>
       </c>
       <c r="P6">
-        <v>0.206</v>
+        <v>1.67</v>
       </c>
       <c r="Q6">
-        <v>0.3672014260249554</v>
+        <v>0.1336</v>
       </c>
       <c r="R6">
-        <v>-4.681818181818182</v>
+        <v>0.8930481283422459</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,73 +1175,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.46</v>
+        <v>1.15</v>
       </c>
       <c r="V6">
-        <v>0.8199643493761141</v>
+        <v>0.092</v>
       </c>
       <c r="W6">
-        <v>-0.02732919254658385</v>
+        <v>0.08577981651376147</v>
       </c>
       <c r="X6">
-        <v>0.259838129778186</v>
+        <v>0.05863468707707098</v>
       </c>
       <c r="Y6">
-        <v>-0.2871673223247699</v>
+        <v>0.02714512943669049</v>
       </c>
       <c r="Z6">
-        <v>0.09293938132889444</v>
+        <v>0.1112967914438503</v>
       </c>
       <c r="AA6">
-        <v>0.0679705923151616</v>
+        <v>0.09174465240641712</v>
       </c>
       <c r="AB6">
-        <v>0.07222724569445732</v>
+        <v>0.05224790821875697</v>
       </c>
       <c r="AC6">
-        <v>-0.004256653379295719</v>
+        <v>0.03949674418766015</v>
       </c>
       <c r="AD6">
-        <v>10.3</v>
+        <v>33.2</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>10.3</v>
+        <v>33.2</v>
       </c>
       <c r="AG6">
-        <v>9.84</v>
+        <v>32.05</v>
       </c>
       <c r="AH6">
-        <v>0.9483472976705644</v>
+        <v>0.7264770240700219</v>
       </c>
       <c r="AI6">
-        <v>0.8995633187772926</v>
+        <v>0.6136783733826248</v>
       </c>
       <c r="AJ6">
-        <v>0.9460628785693683</v>
+        <v>0.7194163860830528</v>
       </c>
       <c r="AK6">
-        <v>0.8953594176524112</v>
+        <v>0.6052880075542966</v>
       </c>
       <c r="AL6">
-        <v>1.13</v>
+        <v>3.99</v>
       </c>
       <c r="AM6">
-        <v>1.13</v>
+        <v>3.702</v>
       </c>
       <c r="AN6">
-        <v>10.4887983706721</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AO6">
-        <v>0.8672566371681416</v>
+        <v>1.37593984962406</v>
       </c>
       <c r="AP6">
-        <v>10.020366598778</v>
+        <v>6.43574297188755</v>
       </c>
       <c r="AQ6">
-        <v>0.8672566371681416</v>
+        <v>1.482982171799027</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B.R.R. Guardian Modaraba (KASE:BRR)</t>
+          <t>First Punjab Modaraba (KASE:FPJM)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1249,46 +1261,43 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0616</v>
-      </c>
-      <c r="E7">
-        <v>0.11</v>
+        <v>0.0354</v>
       </c>
       <c r="G7">
-        <v>0.51</v>
+        <v>0.7688524590163934</v>
       </c>
       <c r="H7">
-        <v>0.51</v>
+        <v>0.7688524590163934</v>
       </c>
       <c r="I7">
-        <v>0.2472727272727273</v>
+        <v>0.7401639344262295</v>
       </c>
       <c r="J7">
-        <v>0.2472727272727273</v>
+        <v>0.7401639344262295</v>
       </c>
       <c r="K7">
-        <v>0.307</v>
+        <v>-0.291</v>
       </c>
       <c r="L7">
-        <v>0.2790909090909091</v>
+        <v>-0.2385245901639344</v>
       </c>
       <c r="M7">
-        <v>0.178</v>
+        <v>0.001</v>
       </c>
       <c r="N7">
-        <v>0.0386117136659436</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="O7">
-        <v>0.5798045602605864</v>
+        <v>-0.003436426116838488</v>
       </c>
       <c r="P7">
-        <v>0.178</v>
+        <v>0.001</v>
       </c>
       <c r="Q7">
-        <v>0.0386117136659436</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="R7">
-        <v>0.5798045602605864</v>
+        <v>-0.003436426116838488</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1297,73 +1306,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.042</v>
+        <v>0.741</v>
       </c>
       <c r="V7">
-        <v>0.009110629067245119</v>
+        <v>1.53099173553719</v>
       </c>
       <c r="W7">
-        <v>0.02669565217391304</v>
+        <v>-0.2530434782608696</v>
       </c>
       <c r="X7">
-        <v>0.03869547961796269</v>
+        <v>0.2752691736706375</v>
       </c>
       <c r="Y7">
-        <v>-0.01199982744404964</v>
+        <v>-0.5283126519315071</v>
       </c>
       <c r="Z7">
-        <v>0.08170541484067444</v>
+        <v>0.1110100090991811</v>
       </c>
       <c r="AA7">
-        <v>0.02020352076060314</v>
+        <v>0.0821656050955414</v>
       </c>
       <c r="AB7">
-        <v>0.04255670679376207</v>
+        <v>0.06415101128769166</v>
       </c>
       <c r="AC7">
-        <v>-0.02235318603315893</v>
+        <v>0.01801459380784974</v>
       </c>
       <c r="AD7">
-        <v>0.805</v>
+        <v>10.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.805</v>
+        <v>10.2</v>
       </c>
       <c r="AG7">
-        <v>0.763</v>
+        <v>9.459</v>
       </c>
       <c r="AH7">
-        <v>0.1486611265004617</v>
+        <v>0.9546986147510296</v>
       </c>
       <c r="AI7">
-        <v>0.0872628726287263</v>
+        <v>0.9276944065484312</v>
       </c>
       <c r="AJ7">
-        <v>0.1420063279359762</v>
+        <v>0.9513225384692748</v>
       </c>
       <c r="AK7">
-        <v>0.08308831536534901</v>
+        <v>0.9224692802808661</v>
       </c>
       <c r="AL7">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="AM7">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="AN7">
-        <v>1.466302367941712</v>
+        <v>11.22112211221122</v>
       </c>
       <c r="AO7">
-        <v>2.472727272727273</v>
+        <v>0.8062499999999999</v>
       </c>
       <c r="AP7">
-        <v>1.389799635701275</v>
+        <v>10.40594059405941</v>
       </c>
       <c r="AQ7">
-        <v>2.472727272727273</v>
+        <v>0.8062499999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1383,25 +1392,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.027</v>
+        <v>0.0232</v>
       </c>
       <c r="G8">
-        <v>0.5331905781584582</v>
+        <v>0.4219178082191781</v>
       </c>
       <c r="H8">
-        <v>0.5331905781584582</v>
+        <v>0.4219178082191781</v>
       </c>
       <c r="I8">
-        <v>0.09207708779443254</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="J8">
-        <v>0.06138472519628835</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="K8">
-        <v>0.02</v>
+        <v>-0.024</v>
       </c>
       <c r="L8">
-        <v>0.04282655246252676</v>
+        <v>-0.06575342465753425</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1410,7 +1419,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1419,37 +1428,37 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.924</v>
+        <v>1.53</v>
       </c>
       <c r="V8">
-        <v>1.3125</v>
+        <v>1.9921875</v>
       </c>
       <c r="W8">
-        <v>0.005865102639296188</v>
+        <v>-0.008823529411764706</v>
       </c>
       <c r="X8">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y8">
-        <v>-0.03070692037004139</v>
+        <v>-0.03621870512958711</v>
       </c>
       <c r="Z8">
-        <v>0.1581442600745005</v>
+        <v>0.2032293986636971</v>
       </c>
       <c r="AA8">
-        <v>0.009707641946043569</v>
+        <v>0.01726057906458797</v>
       </c>
       <c r="AB8">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC8">
-        <v>-0.02686438106329401</v>
+        <v>-0.01013459665323443</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1461,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-0.924</v>
+        <v>-1.53</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1470,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>4.199999999999998</v>
+        <v>2.007874015748031</v>
       </c>
       <c r="AK8">
-        <v>-0.5144766146993318</v>
+        <v>-1.514851485148515</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>-3.540229885057471</v>
+        <v>-12.24</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UDL Modaraba Management (Private) Limited (KASE:FUDLM)</t>
+          <t>First IBL Modaraba (KASE:FIBLM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1505,115 +1514,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.333</v>
+        <v>-0.03240000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.465</v>
       </c>
       <c r="G9">
-        <v>0.4907407407407408</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="H9">
-        <v>0.4907407407407408</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="I9">
-        <v>0.05628783327653421</v>
+        <v>0.09210526315789475</v>
       </c>
       <c r="J9">
-        <v>0.05628783327653421</v>
+        <v>0.09210526315789475</v>
       </c>
       <c r="K9">
-        <v>-0.35</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L9">
-        <v>-1.62037037037037</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>0.0217</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.06595744680851064</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.411111111111111</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>0.0217</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.06595744680851064</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.411111111111111</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>0.262</v>
+        <v>0.23</v>
       </c>
       <c r="V9">
-        <v>0.1416216216216216</v>
+        <v>0.6990881458966566</v>
       </c>
       <c r="W9">
-        <v>-0.07399577167019027</v>
+        <v>0.007317073170731707</v>
       </c>
       <c r="X9">
-        <v>0.03688233802943363</v>
+        <v>0.02753817710647388</v>
       </c>
       <c r="Y9">
-        <v>-0.1108781096996239</v>
+        <v>-0.02022110393574218</v>
       </c>
       <c r="Z9">
-        <v>0.04536662718353453</v>
+        <v>0.1432610744580584</v>
       </c>
       <c r="AA9">
-        <v>0.002553589147225476</v>
+        <v>0.01319509896324223</v>
       </c>
       <c r="AB9">
-        <v>0.03757376221251012</v>
+        <v>0.02789027404818627</v>
       </c>
       <c r="AC9">
-        <v>-0.03502017306528465</v>
+        <v>-0.01469517508494405</v>
       </c>
       <c r="AD9">
-        <v>0.023</v>
+        <v>0.004</v>
       </c>
       <c r="AE9">
-        <v>0.02420914006134306</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.04720914006134306</v>
+        <v>0.004</v>
       </c>
       <c r="AG9">
-        <v>-0.214790859938657</v>
+        <v>-0.226</v>
       </c>
       <c r="AH9">
-        <v>0.0248834664900553</v>
+        <v>0.01201201201201201</v>
       </c>
       <c r="AI9">
-        <v>0.01737412824258249</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="AJ9">
-        <v>-0.131353754499317</v>
+        <v>-2.194174757281553</v>
       </c>
       <c r="AK9">
-        <v>-0.08748373262136457</v>
+        <v>-0.2419700214132763</v>
       </c>
       <c r="AL9">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AM9">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AN9">
-        <v>0.2839506172839506</v>
+        <v>0.08</v>
       </c>
       <c r="AO9">
-        <v>-0.4285714285714285</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AP9">
-        <v>-2.651739011588357</v>
+        <v>-4.52</v>
       </c>
       <c r="AQ9">
-        <v>-0.4285714285714285</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Habib Metro Modaraba (KASE:HMM)</t>
+          <t>Trust Modaraba (KASE:TRSM)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1632,74 +1647,77 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>-0.154</v>
+      </c>
+      <c r="E10">
+        <v>-0.246</v>
+      </c>
       <c r="G10">
-        <v>0</v>
+        <v>-0.04265402843601895</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0.04265402843601895</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02714347264110297</v>
       </c>
       <c r="K10">
-        <v>0.124</v>
+        <v>0.027</v>
       </c>
       <c r="L10">
-        <v>0.496</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="M10">
-        <v>0.019</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.009793814432989691</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.1532258064516129</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>0.019</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.009793814432989691</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.1532258064516129</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>0.312</v>
+        <v>0.031</v>
       </c>
       <c r="V10">
-        <v>0.1608247422680412</v>
+        <v>0.060546875</v>
       </c>
       <c r="W10">
-        <v>0.05102880658436214</v>
+        <v>0.01391752577319588</v>
       </c>
       <c r="X10">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y10">
-        <v>0.01445678357502456</v>
+        <v>-0.01347764994462652</v>
       </c>
       <c r="Z10">
-        <v>0.1188777936281502</v>
+        <v>0.1081496668375192</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.002935557522948604</v>
       </c>
       <c r="AB10">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC10">
-        <v>-0.03657202300933758</v>
+        <v>-0.0244596181948738</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1711,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-0.312</v>
+        <v>-0.031</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1720,16 +1738,22 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-0.1916461916461916</v>
+        <v>-0.06444906444906445</v>
       </c>
       <c r="AK10">
-        <v>-0.1859356376638856</v>
+        <v>-0.0167658193618172</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>-3.1</v>
       </c>
     </row>
     <row r="11">
@@ -1740,7 +1764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>First Fidelity Leasing Modaraba (KASE:FFLM)</t>
+          <t>Habib Metro Modaraba (KASE:HMM)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1748,77 +1772,74 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D11">
-        <v>-0.0226</v>
-      </c>
-      <c r="E11">
-        <v>-0.211</v>
-      </c>
       <c r="G11">
-        <v>-0.06040268456375839</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.06040268456375839</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.06711409395973154</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.05965697240865026</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.007</v>
+        <v>0.148</v>
       </c>
       <c r="L11">
-        <v>0.04697986577181208</v>
+        <v>0.5192982456140351</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.05</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.02890173410404625</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.3378378378378379</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.05</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.02890173410404625</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.3378378378378379</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>0.021</v>
+        <v>0.199</v>
       </c>
       <c r="V11">
-        <v>0.03074670571010249</v>
+        <v>0.1150289017341041</v>
       </c>
       <c r="W11">
-        <v>0.002389078498293515</v>
+        <v>0.07437185929648241</v>
       </c>
       <c r="X11">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y11">
-        <v>-0.03418294451104407</v>
+        <v>0.04697668357866001</v>
       </c>
       <c r="Z11">
-        <v>0.05231741573033707</v>
+        <v>0.1698450536352801</v>
       </c>
       <c r="AA11">
-        <v>-0.003121098626716604</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.03657202300933758</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC11">
-        <v>-0.03969312163605419</v>
+        <v>-0.0273951757178224</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1830,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>-0.021</v>
+        <v>-0.199</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1839,22 +1860,16 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-0.03172205438066465</v>
+        <v>-0.1299804049640758</v>
       </c>
       <c r="AK11">
-        <v>-0.009957325746799431</v>
+        <v>-0.1169900058788948</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>-0</v>
-      </c>
-      <c r="AP11">
-        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1865,7 +1880,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Next Capital Limited (KASE:NEXT)</t>
+          <t>UDL Modaraba Management (Private) Limited (KASE:FUDLM)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1874,109 +1889,115 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.068</v>
-      </c>
-      <c r="E12">
-        <v>-0.4379999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.1757322175732218</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1757322175732218</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-0.06694560669456068</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0.06694560669456068</v>
       </c>
       <c r="K12">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L12">
+        <v>-0.03765690376569038</v>
+      </c>
+      <c r="M12">
+        <v>-0</v>
+      </c>
+      <c r="N12">
+        <v>-0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-0</v>
+      </c>
+      <c r="Q12">
+        <v>-0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0.591</v>
+      </c>
+      <c r="V12">
+        <v>0.2037931034482759</v>
+      </c>
+      <c r="W12">
+        <v>-0.003370786516853932</v>
+      </c>
+      <c r="X12">
+        <v>0.0273951757178224</v>
+      </c>
+      <c r="Y12">
+        <v>-0.03076596223467633</v>
+      </c>
+      <c r="Z12">
+        <v>0.09831345125462772</v>
+      </c>
+      <c r="AA12">
+        <v>-0.00658165364047717</v>
+      </c>
+      <c r="AB12">
+        <v>0.0273951757178224</v>
+      </c>
+      <c r="AC12">
+        <v>-0.03397682935829957</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>-0.591</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.2559549588566479</v>
+      </c>
+      <c r="AK12">
+        <v>-0.2206047032474804</v>
+      </c>
+      <c r="AL12">
         <v>0.003</v>
       </c>
-      <c r="L12">
-        <v>0.002912621359223301</v>
-      </c>
-      <c r="M12">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.01908602150537634</v>
-      </c>
-      <c r="O12">
-        <v>23.66666666666666</v>
-      </c>
-      <c r="P12">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>0.01908602150537634</v>
-      </c>
-      <c r="R12">
-        <v>23.66666666666666</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>1.41</v>
-      </c>
-      <c r="V12">
-        <v>0.3790322580645161</v>
-      </c>
-      <c r="W12">
-        <v>0.0009259259259259259</v>
-      </c>
-      <c r="X12">
-        <v>0.03761808030882458</v>
-      </c>
-      <c r="Y12">
-        <v>-0.03669215438289865</v>
-      </c>
-      <c r="Z12">
-        <v>0.4842501175364363</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0.04024308999834526</v>
-      </c>
-      <c r="AC12">
-        <v>-0.04024308999834526</v>
-      </c>
-      <c r="AD12">
-        <v>0.32</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0.32</v>
-      </c>
-      <c r="AG12">
-        <v>-1.09</v>
-      </c>
-      <c r="AH12">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="AI12">
-        <v>0.1155234657039711</v>
-      </c>
-      <c r="AJ12">
-        <v>-0.4144486692015208</v>
-      </c>
-      <c r="AK12">
-        <v>-0.8014705882352938</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.003</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>-5.333333333333333</v>
+      </c>
+      <c r="AP12">
+        <v>-11.82</v>
+      </c>
+      <c r="AQ12">
+        <v>-5.333333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1987,7 +2008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SME Leasing Limited (KASE:SLL)</t>
+          <t>Pakistan Stock Exchange Limited (KASE:PSX)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1996,25 +2017,28 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.159</v>
+        <v>-0.0266</v>
+      </c>
+      <c r="E13">
+        <v>0.00481</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0.06687306501547988</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.09520123839009288</v>
       </c>
       <c r="I13">
-        <v>0.09906359574667881</v>
+        <v>-0.09551083591331269</v>
       </c>
       <c r="J13">
-        <v>0.09906359574667881</v>
+        <v>-0.09364000510676326</v>
       </c>
       <c r="K13">
-        <v>-0.181</v>
+        <v>1.9</v>
       </c>
       <c r="L13">
-        <v>-1.946236559139785</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2023,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2032,73 +2056,76 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.01</v>
+        <v>2.78</v>
       </c>
       <c r="V13">
-        <v>0.01718213058419244</v>
+        <v>0.03746630727762803</v>
       </c>
       <c r="W13">
-        <v>-0.1887382690302398</v>
+        <v>0.03327495621716287</v>
       </c>
       <c r="X13">
-        <v>0.05669177470682145</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y13">
-        <v>-0.2454300437370613</v>
+        <v>0.005879780499340473</v>
       </c>
       <c r="Z13">
-        <v>0.04473443414760708</v>
+        <v>0.1164803461954562</v>
       </c>
       <c r="AA13">
-        <v>0.004431553900354972</v>
+        <v>-0.01090722021258007</v>
       </c>
       <c r="AB13">
-        <v>0.06166375394955624</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC13">
-        <v>-0.05723220004920127</v>
+        <v>-0.03830239593040247</v>
       </c>
       <c r="AD13">
-        <v>0.949</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.01393542797779435</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.9629354279777943</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>0.9529354279777943</v>
+        <v>-2.78</v>
       </c>
       <c r="AH13">
-        <v>0.6232852263852899</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.6249031662809369</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.6208309552364963</v>
+        <v>-0.03892467096051526</v>
       </c>
       <c r="AK13">
-        <v>0.6224530509667037</v>
+        <v>-0.05273141122913505</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AN13">
-        <v>79.08333333333333</v>
+        <v>-0</v>
       </c>
       <c r="AP13">
-        <v>79.41128566481619</v>
+        <v>14.55497382198953</v>
+      </c>
+      <c r="AQ13">
+        <v>205.6666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -2109,7 +2136,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pakistan Stock Exchange Limited (KASE:PSX)</t>
+          <t>Next Capital Limited (KASE:NEXT)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2117,23 +2144,29 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D14">
+        <v>0.0984</v>
+      </c>
+      <c r="E14">
+        <v>0.296</v>
+      </c>
       <c r="G14">
-        <v>-0.08484848484848484</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.111952861952862</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.2575757575757576</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.2479428430647943</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.592</v>
+        <v>0.257</v>
       </c>
       <c r="L14">
-        <v>0.09966329966329965</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2157,70 +2190,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="V14">
-        <v>0.02538699690402477</v>
+        <v>0.555984555984556</v>
       </c>
       <c r="W14">
-        <v>0.00812071330589849</v>
+        <v>0.1048979591836735</v>
       </c>
       <c r="X14">
-        <v>0.03657202300933758</v>
+        <v>0.03261762508039855</v>
       </c>
       <c r="Y14">
-        <v>-0.02845130970343909</v>
+        <v>0.07228033410327492</v>
       </c>
       <c r="Z14">
-        <v>0.08601216333622937</v>
+        <v>1.058823529411764</v>
       </c>
       <c r="AA14">
-        <v>-0.02132610031573817</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.03657202300933758</v>
+        <v>0.0400688325101249</v>
       </c>
       <c r="AC14">
-        <v>-0.05789812332507575</v>
+        <v>-0.0400688325101249</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AG14">
-        <v>-1.64</v>
+        <v>-0.29</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.3074866310160428</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="AJ14">
-        <v>-0.02604828462515883</v>
+        <v>-0.1260869565217392</v>
       </c>
       <c r="AK14">
-        <v>-0.02957086188243779</v>
+        <v>-0.1255411255411256</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>-0.011</v>
-      </c>
-      <c r="AN14">
-        <v>-0</v>
-      </c>
-      <c r="AP14">
-        <v>2.55054432348367</v>
-      </c>
-      <c r="AQ14">
-        <v>139.0909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2231,7 +2255,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORIX Leasing Pakistan Limited (KASE:OLPL)</t>
+          <t>Grays Leasing Limited (KASE:GRYL)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2240,10 +2264,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.164</v>
-      </c>
-      <c r="E15">
-        <v>0.13</v>
+        <v>0.0251</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2258,85 +2279,82 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.47</v>
+        <v>-0.02</v>
       </c>
       <c r="L15">
-        <v>0.2310714285714286</v>
+        <v>-0.3125</v>
       </c>
       <c r="M15">
-        <v>3.36</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.1187279151943463</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>0.5193199381761978</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>3.36</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.1187279151943463</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>0.5193199381761978</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>4.75</v>
+        <v>0.046</v>
       </c>
       <c r="V15">
-        <v>0.1678445229681979</v>
+        <v>0.06959152798789713</v>
       </c>
       <c r="W15">
-        <v>0.1074750830564784</v>
+        <v>-0.04618937644341801</v>
       </c>
       <c r="X15">
-        <v>0.07833854052012661</v>
+        <v>0.03426367736321066</v>
       </c>
       <c r="Y15">
-        <v>0.02913654253635178</v>
+        <v>-0.08045305380662868</v>
       </c>
       <c r="Z15">
-        <v>0.1497334210343371</v>
+        <v>0.08409986859395534</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.06243823699786959</v>
+        <v>0.04259072232439154</v>
       </c>
       <c r="AC15">
-        <v>-0.06243823699786959</v>
+        <v>-0.04259072232439154</v>
       </c>
       <c r="AD15">
-        <v>97.2</v>
+        <v>0.386</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>97.2</v>
+        <v>0.386</v>
       </c>
       <c r="AG15">
-        <v>92.45</v>
+        <v>0.34</v>
       </c>
       <c r="AH15">
-        <v>0.7745019920318725</v>
+        <v>0.3686723973256924</v>
       </c>
       <c r="AI15">
-        <v>0.6266924564796905</v>
+        <v>0.4980645161290322</v>
       </c>
       <c r="AJ15">
-        <v>0.7656314699792961</v>
+        <v>0.3396603396603396</v>
       </c>
       <c r="AK15">
-        <v>0.6148985700033256</v>
+        <v>0.46639231824417</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2353,7 +2371,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>First Dawood Investment Bank Limited (KASE:FDIBL)</t>
+          <t>First Fidelity Leasing Modaraba (KASE:FFLM)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2361,23 +2379,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.249</v>
+      </c>
       <c r="G16">
-        <v>0</v>
+        <v>-0.3529411764705882</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0.3529411764705882</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="K16">
-        <v>0.01</v>
+        <v>-0.022</v>
       </c>
       <c r="L16">
-        <v>0.04</v>
+        <v>-0.1617647058823529</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2386,7 +2407,7 @@
         <v>-0</v>
       </c>
       <c r="O16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2395,67 +2416,73 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.405</v>
+        <v>0.004</v>
       </c>
       <c r="V16">
-        <v>0.2288135593220339</v>
+        <v>0.006932409012131716</v>
       </c>
       <c r="W16">
-        <v>0.002481389578163772</v>
+        <v>-0.01004566210045662</v>
       </c>
       <c r="X16">
-        <v>0.05381645488922805</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y16">
-        <v>-0.05133506531106428</v>
+        <v>-0.03744083781827902</v>
       </c>
       <c r="Z16">
-        <v>0.03651767455448437</v>
+        <v>0.06229958772331655</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-0.01557489693082914</v>
       </c>
       <c r="AB16">
-        <v>0.06375228563735555</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC16">
-        <v>-0.06375228563735555</v>
+        <v>-0.04297007264865153</v>
       </c>
       <c r="AD16">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2.105</v>
+        <v>-0.004</v>
       </c>
       <c r="AH16">
-        <v>0.5864485981308412</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.4403508771929825</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.5432258064516129</v>
+        <v>-0.006980802792321118</v>
       </c>
       <c r="AK16">
-        <v>0.3975448536355051</v>
+        <v>-0.001964636542239686</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>-0</v>
+      </c>
+      <c r="AP16">
+        <v>0.125</v>
       </c>
     </row>
     <row r="17">
@@ -2466,7 +2493,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>First Paramount Modaraba (KASE:FPRM)</t>
+          <t>First Dawood Investment Bank Limited (KASE:FDIBL)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2475,10 +2502,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.352</v>
-      </c>
-      <c r="E17">
-        <v>-0.00647</v>
+        <v>0.122</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2493,85 +2517,82 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.08</v>
+        <v>-0.353</v>
       </c>
       <c r="L17">
-        <v>0.05479452054794521</v>
+        <v>-1.597285067873303</v>
       </c>
       <c r="M17">
-        <v>0.049</v>
+        <v>-0</v>
       </c>
       <c r="N17">
-        <v>0.09664694280078896</v>
+        <v>-0</v>
       </c>
       <c r="O17">
-        <v>0.6125</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.049</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>0.09664694280078896</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>0.6125</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>0.153</v>
+        <v>0.013</v>
       </c>
       <c r="V17">
-        <v>0.3017751479289941</v>
+        <v>0.006341463414634147</v>
       </c>
       <c r="W17">
-        <v>0.04878048780487805</v>
+        <v>-0.1106583072100313</v>
       </c>
       <c r="X17">
-        <v>0.06463452171672907</v>
+        <v>0.03996028919797859</v>
       </c>
       <c r="Y17">
-        <v>-0.01585403391185101</v>
+        <v>-0.1506185964080099</v>
       </c>
       <c r="Z17">
-        <v>0.5634890003859514</v>
+        <v>0.04173748819641172</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.06465845608112029</v>
+        <v>0.04728075587020814</v>
       </c>
       <c r="AC17">
-        <v>-0.06465845608112029</v>
+        <v>-0.04728075587020814</v>
       </c>
       <c r="AD17">
-        <v>1.17</v>
+        <v>2.19</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.17</v>
+        <v>2.19</v>
       </c>
       <c r="AG17">
-        <v>1.017</v>
+        <v>2.177</v>
       </c>
       <c r="AH17">
-        <v>0.6976744186046511</v>
+        <v>0.5165094339622641</v>
       </c>
       <c r="AI17">
-        <v>0.4736842105263158</v>
+        <v>0.4302554027504912</v>
       </c>
       <c r="AJ17">
-        <v>0.6673228346456692</v>
+        <v>0.5150224745682517</v>
       </c>
       <c r="AK17">
-        <v>0.4389296504100129</v>
+        <v>0.4287965333858578</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2588,7 +2609,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>First Elite Capital Modaraba (KASE:FECM)</t>
+          <t>ORIX Leasing Pakistan Limited (KASE:OLPL)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2597,43 +2618,46 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.0667</v>
+        <v>0.11</v>
+      </c>
+      <c r="E18">
+        <v>0.00293</v>
       </c>
       <c r="G18">
-        <v>-0.06713780918727916</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>-0.06713780918727916</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.1060070671378092</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>-0.1060070671378092</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>-0.033</v>
+        <v>4.28</v>
       </c>
       <c r="L18">
-        <v>-0.1166077738515901</v>
+        <v>0.1954337899543379</v>
       </c>
       <c r="M18">
-        <v>0.019</v>
+        <v>6.3</v>
       </c>
       <c r="N18">
-        <v>0.09452736318407959</v>
+        <v>0.2128378378378378</v>
       </c>
       <c r="O18">
-        <v>-0.5757575757575757</v>
+        <v>1.47196261682243</v>
       </c>
       <c r="P18">
-        <v>0.019</v>
+        <v>6.3</v>
       </c>
       <c r="Q18">
-        <v>0.09452736318407959</v>
+        <v>0.2128378378378378</v>
       </c>
       <c r="R18">
-        <v>-0.5757575757575757</v>
+        <v>1.47196261682243</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2642,67 +2666,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.054</v>
+        <v>6.81</v>
       </c>
       <c r="V18">
-        <v>0.2686567164179104</v>
+        <v>0.2300675675675675</v>
       </c>
       <c r="W18">
-        <v>-0.033</v>
+        <v>0.08214971209213053</v>
       </c>
       <c r="X18">
-        <v>0.03657202300933758</v>
+        <v>0.05838927736963306</v>
       </c>
       <c r="Y18">
-        <v>-0.06957202300933758</v>
+        <v>0.02376043472249746</v>
       </c>
       <c r="Z18">
-        <v>0.3373063170441001</v>
+        <v>0.1515969597541222</v>
       </c>
       <c r="AA18">
-        <v>-0.03575685339690107</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.03657202300933758</v>
+        <v>0.0521941999577649</v>
       </c>
       <c r="AC18">
-        <v>-0.07232887640623865</v>
+        <v>-0.0521941999577649</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AG18">
-        <v>-0.054</v>
+        <v>71.19</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>0.724907063197026</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>0.580789277736411</v>
       </c>
       <c r="AJ18">
-        <v>-0.3673469387755102</v>
+        <v>0.7063200714356583</v>
       </c>
       <c r="AK18">
-        <v>-0.0819423368740516</v>
+        <v>0.5583967369989803</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>-0</v>
-      </c>
-      <c r="AP18">
-        <v>2.16</v>
       </c>
     </row>
     <row r="19">
@@ -2713,7 +2731,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Grays Leasing Limited (KASE:GRYL)</t>
+          <t>First Paramount Modaraba (KASE:FPRM)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2722,7 +2740,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.06280000000000001</v>
+        <v>0.112</v>
+      </c>
+      <c r="E19">
+        <v>-0.09720000000000001</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2737,82 +2758,85 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-0.01</v>
+        <v>0.036</v>
       </c>
       <c r="L19">
-        <v>-0.1234567901234568</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>0.067</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0.1318897637795276</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.861111111111111</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>0.067</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.1318897637795276</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.861111111111111</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19">
-        <v>0.04</v>
+        <v>0.522</v>
       </c>
       <c r="V19">
-        <v>0.1025641025641026</v>
+        <v>1.02755905511811</v>
       </c>
       <c r="W19">
-        <v>-0.01788908765652952</v>
+        <v>0.02769230769230769</v>
       </c>
       <c r="X19">
-        <v>0.04804646692524877</v>
+        <v>0.05170611553556607</v>
       </c>
       <c r="Y19">
-        <v>-0.06593555458177829</v>
+        <v>-0.02401380784325838</v>
       </c>
       <c r="Z19">
-        <v>0.09747292418772562</v>
+        <v>0.302977988778593</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.07946354969921839</v>
+        <v>0.05517295672098806</v>
       </c>
       <c r="AC19">
-        <v>-0.07946354969921839</v>
+        <v>-0.05517295672098806</v>
       </c>
       <c r="AD19">
-        <v>0.368</v>
+        <v>1.05</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.368</v>
+        <v>1.05</v>
       </c>
       <c r="AG19">
-        <v>0.328</v>
+        <v>0.528</v>
       </c>
       <c r="AH19">
-        <v>0.4854881266490765</v>
+        <v>0.6739409499358151</v>
       </c>
       <c r="AI19">
-        <v>0.4594257178526842</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="AJ19">
-        <v>0.456824512534819</v>
+        <v>0.5096525096525096</v>
       </c>
       <c r="AK19">
-        <v>0.431011826544021</v>
+        <v>0.3003412969283277</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2829,7 +2853,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>First Capital Securities Corporation Limited (KASE:FCSC)</t>
+          <t>SME Leasing Limited (KASE:SLL)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2837,26 +2861,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D20">
-        <v>-0.00524</v>
-      </c>
       <c r="G20">
-        <v>-0.2556962025316456</v>
+        <v>-0</v>
       </c>
       <c r="H20">
-        <v>-0.2556962025316456</v>
+        <v>-0</v>
       </c>
       <c r="I20">
-        <v>-0.3765822784810126</v>
+        <v>-0</v>
       </c>
       <c r="J20">
-        <v>-0.3765822784810126</v>
+        <v>-0</v>
       </c>
       <c r="K20">
-        <v>-0.407</v>
+        <v>-0.289</v>
       </c>
       <c r="L20">
-        <v>-0.2575949367088607</v>
+        <v>18.0625</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2880,73 +2901,61 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.285</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="V20">
-        <v>0.1117647058823529</v>
+        <v>0.01323529411764706</v>
       </c>
       <c r="W20">
-        <v>-0.0373394495412844</v>
+        <v>-0.5</v>
       </c>
       <c r="X20">
-        <v>0.1295634402946153</v>
+        <v>0.04332558298763767</v>
       </c>
       <c r="Y20">
-        <v>-0.1669028898358997</v>
+        <v>-0.5433255829876377</v>
       </c>
       <c r="Z20">
-        <v>0.04790782292298362</v>
+        <v>-0.01054713249835201</v>
       </c>
       <c r="AA20">
-        <v>-0.01804123711340206</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.07217364678966987</v>
+        <v>0.05519843762198971</v>
       </c>
       <c r="AC20">
-        <v>-0.09021488390307192</v>
+        <v>-0.05519843762198971</v>
       </c>
       <c r="AD20">
-        <v>19.5</v>
+        <v>0.921</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>19.5</v>
+        <v>0.921</v>
       </c>
       <c r="AG20">
-        <v>19.215</v>
+        <v>0.912</v>
       </c>
       <c r="AH20">
-        <v>0.8843537414965986</v>
+        <v>0.57526545908807</v>
       </c>
       <c r="AI20">
-        <v>0.6521739130434783</v>
+        <v>0.7785291631445478</v>
       </c>
       <c r="AJ20">
-        <v>0.8828394210889041</v>
+        <v>0.5728643216080402</v>
       </c>
       <c r="AK20">
-        <v>0.6488266081377679</v>
+        <v>0.7768313458262351</v>
       </c>
       <c r="AL20">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>1.583</v>
-      </c>
-      <c r="AN20">
-        <v>-40.7098121085595</v>
-      </c>
-      <c r="AO20">
-        <v>-0.3380681818181818</v>
-      </c>
-      <c r="AP20">
-        <v>-40.11482254697286</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.375868603916614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2957,7 +2966,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KASB Modaraba (KASE:KASBM)</t>
+          <t>First Elite Capital Modaraba (KASE:FECM)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2966,25 +2975,25 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.382</v>
+        <v>-0.07150000000000001</v>
       </c>
       <c r="G21">
-        <v>-1.009803921568627</v>
+        <v>-0.1065573770491803</v>
       </c>
       <c r="H21">
-        <v>-1.009803921568627</v>
+        <v>-0.1065573770491803</v>
       </c>
       <c r="I21">
-        <v>-1.470588235294118</v>
+        <v>-0.08196721311475411</v>
       </c>
       <c r="J21">
-        <v>-1.470588235294118</v>
+        <v>-0.08196721311475411</v>
       </c>
       <c r="K21">
-        <v>-0.273</v>
+        <v>-0.021</v>
       </c>
       <c r="L21">
-        <v>-2.676470588235294</v>
+        <v>-0.08606557377049182</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -3008,73 +3017,67 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.364</v>
+        <v>0.113</v>
       </c>
       <c r="V21">
-        <v>1.096385542168675</v>
+        <v>0.5136363636363637</v>
       </c>
       <c r="W21">
-        <v>-0.1224215246636771</v>
+        <v>-0.02945301542776999</v>
       </c>
       <c r="X21">
-        <v>0.0383667832178324</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="Y21">
-        <v>-0.1607883078815096</v>
+        <v>-0.05684819114559239</v>
       </c>
       <c r="Z21">
-        <v>0.04187192118226601</v>
+        <v>0.370257966616085</v>
       </c>
       <c r="AA21">
-        <v>-0.06157635467980296</v>
+        <v>-0.03034901365705615</v>
       </c>
       <c r="AB21">
-        <v>0.04174946084680443</v>
+        <v>0.0273951757178224</v>
       </c>
       <c r="AC21">
-        <v>-0.1033258155266074</v>
+        <v>-0.05774418937487855</v>
       </c>
       <c r="AD21">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>-0.315</v>
+        <v>-0.113</v>
       </c>
       <c r="AH21">
-        <v>0.1286089238845144</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.0316333118140736</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-18.52941176470587</v>
+        <v>-1.05607476635514</v>
       </c>
       <c r="AK21">
-        <v>-0.2658227848101266</v>
+        <v>-0.2062043795620438</v>
       </c>
       <c r="AL21">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>-0.4711538461538462</v>
-      </c>
-      <c r="AO21">
-        <v>-7.894736842105263</v>
+        <v>-0</v>
       </c>
       <c r="AP21">
-        <v>3.028846153846154</v>
-      </c>
-      <c r="AQ21">
-        <v>-12.5</v>
+        <v>7.0625</v>
       </c>
     </row>
     <row r="22">
@@ -3085,124 +3088,377 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>First Capital Securities Corporation Limited (KASE:FCSC)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>-0.152</v>
+      </c>
+      <c r="G22">
+        <v>-0.3286713286713286</v>
+      </c>
+      <c r="H22">
+        <v>-0.3286713286713286</v>
+      </c>
+      <c r="I22">
+        <v>-0.2405594405594406</v>
+      </c>
+      <c r="J22">
+        <v>-0.2405594405594406</v>
+      </c>
+      <c r="K22">
+        <v>-1.45</v>
+      </c>
+      <c r="L22">
+        <v>-1.013986013986014</v>
+      </c>
+      <c r="M22">
+        <v>-0</v>
+      </c>
+      <c r="N22">
+        <v>-0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>-0</v>
+      </c>
+      <c r="Q22">
+        <v>-0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.393</v>
+      </c>
+      <c r="V22">
+        <v>0.143956043956044</v>
+      </c>
+      <c r="W22">
+        <v>-0.1649601820250285</v>
+      </c>
+      <c r="X22">
+        <v>0.1157168667214794</v>
+      </c>
+      <c r="Y22">
+        <v>-0.2806770487465078</v>
+      </c>
+      <c r="Z22">
+        <v>0.05106231030173183</v>
+      </c>
+      <c r="AA22">
+        <v>-0.01228352079985717</v>
+      </c>
+      <c r="AB22">
+        <v>0.06376827894887042</v>
+      </c>
+      <c r="AC22">
+        <v>-0.0760517997487276</v>
+      </c>
+      <c r="AD22">
+        <v>20.5</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>20.5</v>
+      </c>
+      <c r="AG22">
+        <v>20.107</v>
+      </c>
+      <c r="AH22">
+        <v>0.8824795523030564</v>
+      </c>
+      <c r="AI22">
+        <v>0.7068965517241379</v>
+      </c>
+      <c r="AJ22">
+        <v>0.8804571528659632</v>
+      </c>
+      <c r="AK22">
+        <v>0.7028699269409585</v>
+      </c>
+      <c r="AL22">
+        <v>1.74</v>
+      </c>
+      <c r="AM22">
+        <v>1.572</v>
+      </c>
+      <c r="AN22">
+        <v>-61.74698795180723</v>
+      </c>
+      <c r="AO22">
+        <v>-0.1977011494252874</v>
+      </c>
+      <c r="AP22">
+        <v>-60.56325301204819</v>
+      </c>
+      <c r="AQ22">
+        <v>-0.2188295165394402</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KASB Modaraba (KASE:KASBM)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>-0.552</v>
+      </c>
+      <c r="G23">
+        <v>-32.38888888888889</v>
+      </c>
+      <c r="H23">
+        <v>-32.38888888888889</v>
+      </c>
+      <c r="I23">
+        <v>-32.83333333333334</v>
+      </c>
+      <c r="J23">
+        <v>-32.83333333333334</v>
+      </c>
+      <c r="K23">
+        <v>-0.574</v>
+      </c>
+      <c r="L23">
+        <v>-31.88888888888889</v>
+      </c>
+      <c r="M23">
+        <v>-0</v>
+      </c>
+      <c r="N23">
+        <v>-0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-0</v>
+      </c>
+      <c r="Q23">
+        <v>-0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0.455</v>
+      </c>
+      <c r="V23">
+        <v>1.243169398907104</v>
+      </c>
+      <c r="W23">
+        <v>-0.3826666666666667</v>
+      </c>
+      <c r="X23">
+        <v>0.02765226564605375</v>
+      </c>
+      <c r="Y23">
+        <v>-0.4103189323127204</v>
+      </c>
+      <c r="Z23">
+        <v>0.01518987341772152</v>
+      </c>
+      <c r="AA23">
+        <v>-0.4987341772151898</v>
+      </c>
+      <c r="AB23">
+        <v>0.02821870376066288</v>
+      </c>
+      <c r="AC23">
+        <v>-0.5269528809758527</v>
+      </c>
+      <c r="AD23">
+        <v>0.008</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0.008</v>
+      </c>
+      <c r="AG23">
+        <v>-0.447</v>
+      </c>
+      <c r="AH23">
+        <v>0.0213903743315508</v>
+      </c>
+      <c r="AI23">
+        <v>0.009422850412249707</v>
+      </c>
+      <c r="AJ23">
+        <v>5.518518518518517</v>
+      </c>
+      <c r="AK23">
+        <v>-1.134517766497462</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>-0.028</v>
+      </c>
+      <c r="AN23">
+        <v>-0.01367521367521368</v>
+      </c>
+      <c r="AP23">
+        <v>0.7641025641025642</v>
+      </c>
+      <c r="AQ23">
+        <v>21.10714285714285</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Saudi Pak Leasing Company Limited (KASE:SPLC)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D22">
-        <v>-0.342</v>
-      </c>
-      <c r="G22">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H22">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="I22">
-        <v>2.611111111111111</v>
-      </c>
-      <c r="J22">
-        <v>2.611111111111111</v>
-      </c>
-      <c r="K22">
-        <v>0.083</v>
-      </c>
-      <c r="L22">
-        <v>2.305555555555556</v>
-      </c>
-      <c r="M22">
-        <v>-0</v>
-      </c>
-      <c r="N22">
-        <v>-0</v>
-      </c>
-      <c r="O22">
-        <v>-0</v>
-      </c>
-      <c r="P22">
-        <v>-0</v>
-      </c>
-      <c r="Q22">
-        <v>-0</v>
-      </c>
-      <c r="R22">
-        <v>-0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0.017</v>
-      </c>
-      <c r="V22">
-        <v>0.05944055944055945</v>
-      </c>
-      <c r="W22">
-        <v>-0.008383838383838384</v>
-      </c>
-      <c r="X22">
-        <v>0.2100492877459395</v>
-      </c>
-      <c r="Y22">
-        <v>-0.2184331261297779</v>
-      </c>
-      <c r="Z22">
-        <v>-0.1068249258160236</v>
-      </c>
-      <c r="AA22">
-        <v>-0.2789317507418394</v>
-      </c>
-      <c r="AB22">
-        <v>0.07170639328047484</v>
-      </c>
-      <c r="AC22">
-        <v>-0.3506381440223142</v>
-      </c>
-      <c r="AD22">
-        <v>4.08</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>4.08</v>
-      </c>
-      <c r="AG22">
-        <v>4.063</v>
-      </c>
-      <c r="AH22">
-        <v>0.9344938158497481</v>
-      </c>
-      <c r="AI22">
-        <v>408.0000000000087</v>
-      </c>
-      <c r="AJ22">
-        <v>0.9342377558059325</v>
-      </c>
-      <c r="AK22">
-        <v>-580.4285714285248</v>
-      </c>
-      <c r="AL22">
-        <v>0.3</v>
-      </c>
-      <c r="AM22">
-        <v>0.3</v>
-      </c>
-      <c r="AN22">
-        <v>17</v>
-      </c>
-      <c r="AO22">
-        <v>0.3133333333333334</v>
-      </c>
-      <c r="AP22">
-        <v>16.92916666666667</v>
-      </c>
-      <c r="AQ22">
-        <v>0.3133333333333334</v>
+      <c r="D24">
+        <v>-0.472</v>
+      </c>
+      <c r="G24">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="H24">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="I24">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="J24">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="K24">
+        <v>-0.031</v>
+      </c>
+      <c r="L24">
+        <v>-5.166666666666667</v>
+      </c>
+      <c r="M24">
+        <v>-0</v>
+      </c>
+      <c r="N24">
+        <v>-0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>-0</v>
+      </c>
+      <c r="Q24">
+        <v>-0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0.019</v>
+      </c>
+      <c r="V24">
+        <v>0.05382436260623229</v>
+      </c>
+      <c r="W24">
+        <v>0.004161073825503355</v>
+      </c>
+      <c r="X24">
+        <v>0.1506781717556776</v>
+      </c>
+      <c r="Y24">
+        <v>-0.1465170979301742</v>
+      </c>
+      <c r="Z24">
+        <v>-0.8571428571428309</v>
+      </c>
+      <c r="AA24">
+        <v>-2.428571428571354</v>
+      </c>
+      <c r="AB24">
+        <v>0.06502228235743063</v>
+      </c>
+      <c r="AC24">
+        <v>-2.493593710928785</v>
+      </c>
+      <c r="AD24">
+        <v>3.7</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>3.7</v>
+      </c>
+      <c r="AG24">
+        <v>3.681</v>
+      </c>
+      <c r="AH24">
+        <v>0.9129040217123119</v>
+      </c>
+      <c r="AI24">
+        <v>9.249999999999993</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9124938026772434</v>
+      </c>
+      <c r="AK24">
+        <v>9.661417322834639</v>
+      </c>
+      <c r="AL24">
+        <v>0.287</v>
+      </c>
+      <c r="AM24">
+        <v>0.275</v>
+      </c>
+      <c r="AN24">
+        <v>-119.3548387096774</v>
+      </c>
+      <c r="AO24">
+        <v>0.05923344947735192</v>
+      </c>
+      <c r="AP24">
+        <v>-118.741935483871</v>
+      </c>
+      <c r="AQ24">
+        <v>0.06181818181818183</v>
       </c>
     </row>
   </sheetData>
